--- a/experiments/programs/SeeDB_python/DiViz_airbnb/property_type='Apartment'.xlsx
+++ b/experiments/programs/SeeDB_python/DiViz_airbnb/property_type='Apartment'.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +489,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>8.5513535381024408E-2</v>
+        <v>8.5495420212617287E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -503,7 +503,7 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>6.5549463835779781E-2</v>
+        <v>6.5635266188360381E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -517,7 +517,7 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>6.3832429604174401E-2</v>
+        <v>6.3887294346719942E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -531,7 +531,7 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>6.1306167152131837E-2</v>
+        <v>6.128994132117363E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -545,7 +545,7 @@
         <v>12</v>
       </c>
       <c r="D8">
-        <v>5.217009816708526E-2</v>
+        <v>5.2217606830795731E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -573,7 +573,7 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>2.0249715584191821E-2</v>
+        <v>2.0311193409614719E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -601,7 +601,7 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>3.5652334325624382E-2</v>
+        <v>3.5615568617540082E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>2.5277883202214121E-2</v>
+        <v>2.5245805756066431E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -629,7 +629,7 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>1.4722266781180011E-2</v>
+        <v>1.4720434104177329E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -643,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="D15">
-        <v>1.033120277772856E-2</v>
+        <v>1.0373638595766141E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -657,7 +657,7 @@
         <v>12</v>
       </c>
       <c r="D16">
-        <v>9.110127009203578E-3</v>
+        <v>9.0816845816889119E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>10</v>
       </c>
       <c r="D17">
-        <v>8.7526068009126084E-3</v>
+        <v>8.7659305997118287E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -713,7 +713,7 @@
         <v>10</v>
       </c>
       <c r="D20">
-        <v>6.8872364251088114E-2</v>
+        <v>6.8867639103372583E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -741,7 +741,7 @@
         <v>10</v>
       </c>
       <c r="D22">
-        <v>4.5277802742212922E-2</v>
+        <v>4.5277435996369512E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -769,7 +769,7 @@
         <v>10</v>
       </c>
       <c r="D24">
-        <v>3.4665930249187231E-2</v>
+        <v>3.466076448886786E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -797,7 +797,7 @@
         <v>12</v>
       </c>
       <c r="D26">
-        <v>1.6513593083943661E-2</v>
+        <v>1.65391208161139E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -811,7 +811,7 @@
         <v>12</v>
       </c>
       <c r="D27">
-        <v>1.444630549827253E-2</v>
+        <v>1.446409898824072E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -825,7 +825,7 @@
         <v>12</v>
       </c>
       <c r="D28">
-        <v>1.325107487357037E-2</v>
+        <v>1.326720170432156E-2</v>
       </c>
     </row>
   </sheetData>
